--- a/Consumption Report ODC_Swati and Sudipta.xlsx
+++ b/Consumption Report ODC_Swati and Sudipta.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SwatiGupta\Documents\ODC Consumption Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SwatiGupta\Documents\github-upload\github-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C6AE57-BF8D-44D5-8252-9237304EA578}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Consumption</t>
   </si>
@@ -194,11 +196,14 @@
       <t>- Supported UI testing from ODC for CASPER screens</t>
     </r>
   </si>
+  <si>
+    <t>Made some changes to test git</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,31 +575,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -905,40 +910,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.7265625" customWidth="1"/>
-    <col min="8" max="8" width="37.7265625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="38.1796875" customWidth="1"/>
-    <col min="10" max="10" width="38.1796875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="38.140625" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="26"/>
       <c r="I1" s="2"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -970,7 +975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -993,11 +998,11 @@
         <v>64</v>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="31"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="1:10" ht="232" x14ac:dyDescent="0.35">
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>18</v>
       </c>
@@ -1020,17 +1025,17 @@
       <c r="G4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="30" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="261" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>19</v>
       </c>
@@ -1053,17 +1058,17 @@
       <c r="G5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="30" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1075,7 +1080,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1087,7 +1092,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1099,7 +1104,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1107,11 +1112,11 @@
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1123,7 +1128,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1135,7 +1140,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1147,7 +1152,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1159,7 +1164,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="13"/>
       <c r="C14" s="17"/>
@@ -1171,7 +1176,7 @@
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="13"/>
       <c r="C15" s="17"/>
@@ -1183,7 +1188,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="13"/>
       <c r="C16" s="17"/>
@@ -1195,7 +1200,7 @@
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1207,7 +1212,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1219,7 +1224,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -1231,7 +1236,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="13"/>
       <c r="C20" s="18"/>
@@ -1243,7 +1248,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="13"/>
       <c r="C21" s="19"/>
@@ -1255,7 +1260,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1267,7 +1272,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="13"/>
       <c r="C23" s="19"/>
@@ -1279,7 +1284,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1301,20 +1306,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3645B3BF-C364-48FD-809B-24DCB45A1C97}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D3:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="38.1796875" customWidth="1"/>
-    <col min="5" max="5" width="62.90625" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="62.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>21</v>
       </c>
@@ -1322,15 +1345,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="4:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:5" ht="105" x14ac:dyDescent="0.25">
       <c r="D4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>24</v>
       </c>
@@ -1338,11 +1361,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="4:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:5" ht="180" x14ac:dyDescent="0.25">
       <c r="D7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>25</v>
       </c>
     </row>
